--- a/Assets/UML.xlsx
+++ b/Assets/UML.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>DB</t>
   </si>
@@ -94,13 +94,16 @@
   </si>
   <si>
     <t>UpdateUser()</t>
+  </si>
+  <si>
+    <t>TotalAmountOfUsers()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,8 +119,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,34 +140,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -250,17 +239,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -804,7 +792,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:colOff>1190625</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
@@ -812,7 +800,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -821,8 +809,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6600825" y="2057401"/>
-          <a:ext cx="95250" cy="209550"/>
+          <a:off x="8048625" y="2066926"/>
+          <a:ext cx="123825" cy="238124"/>
         </a:xfrm>
         <a:prstGeom prst="rightBracket">
           <a:avLst/>
@@ -1345,24 +1333,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:K22"/>
+  <dimension ref="A3:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.5703125" customWidth="1"/>
     <col min="11" max="11" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1370,38 +1359,37 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C5" s="4" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="5"/>
-      <c r="E6" s="5" t="s">
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="4"/>
+      <c r="E6" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="6"/>
-      <c r="E7" s="5" t="s">
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="5"/>
+      <c r="E7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="7" t="s">
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1416,46 +1404,40 @@
       <c r="I10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="9" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C11" s="4" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="G11" s="4" t="s">
+      <c r="E11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="8" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="5" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="G12" s="5" t="s">
+      <c r="E12" s="4"/>
+      <c r="G12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="K13" s="6"/>
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="I13" s="5"/>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D17" s="2" t="s">
         <v>4</v>
@@ -1463,29 +1445,37 @@
       <c r="G17" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I17" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="4"/>
+      <c r="I19" s="4"/>
     </row>
     <row r="20" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="6"/>
+      <c r="G20" s="5"/>
+      <c r="I20" s="5"/>
     </row>
     <row r="21" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Assets/UML.xlsx
+++ b/Assets/UML.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>DB</t>
   </si>
@@ -54,15 +54,9 @@
     <t>Players[]</t>
   </si>
   <si>
-    <t>User withID()</t>
-  </si>
-  <si>
     <t>$user</t>
   </si>
   <si>
-    <t>?/Profile/user_withID/5</t>
-  </si>
-  <si>
     <t>Kills</t>
   </si>
   <si>
@@ -97,6 +91,15 @@
   </si>
   <si>
     <t>TotalAmountOfUsers()</t>
+  </si>
+  <si>
+    <t>userWithID()</t>
+  </si>
+  <si>
+    <t>?/Profile/userWithID/5</t>
+  </si>
+  <si>
+    <t>receiveUser()</t>
   </si>
 </sst>
 </file>
@@ -239,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -249,6 +252,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1333,10 +1337,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:J22"/>
+  <dimension ref="A2:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1350,47 +1354,52 @@
     <col min="11" max="11" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="2" t="s">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>24</v>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>19</v>
+      <c r="C5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="4"/>
+      <c r="C6" s="5"/>
       <c r="E6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="5"/>
-      <c r="E7" s="4" t="s">
-        <v>21</v>
+      <c r="E7" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="6" t="s">
-        <v>25</v>
+      <c r="E8" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2</v>
@@ -1407,10 +1416,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>9</v>
@@ -1421,7 +1430,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" s="4"/>
       <c r="G12" s="4" t="s">
@@ -1446,37 +1455,37 @@
         <v>7</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D18" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D19" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G19" s="4"/>
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D20" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G20" s="5"/>
       <c r="I20" s="5"/>
     </row>
     <row r="21" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D21" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="4:10" ht="18.75" x14ac:dyDescent="0.3">
